--- a/Wedding Invitation - Andy (NEW 2).xlsx
+++ b/Wedding Invitation - Andy (NEW 2).xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="60">
   <si>
     <t>Name</t>
   </si>
@@ -190,6 +190,12 @@
   </si>
   <si>
     <t>(dibarengkan rumah motty)</t>
+  </si>
+  <si>
+    <t>Vila Bukit Mas Victorian R-3 (masuk lwt blok Mediteranian - pagar putih)</t>
+  </si>
+  <si>
+    <t>Mulyosari baru no 40 (cari kampung roti, baru masuk gang - deretan mcD) - Sylvi</t>
   </si>
 </sst>
 </file>
@@ -263,14 +269,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -573,8 +585,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:F49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="I41" sqref="I41"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="I43" sqref="I43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -600,7 +612,7 @@
       <c r="E2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="5" t="s">
         <v>54</v>
       </c>
     </row>
@@ -617,7 +629,7 @@
       <c r="E3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="2"/>
+      <c r="F3" s="6"/>
     </row>
     <row r="4" spans="2:6">
       <c r="B4" s="2">
@@ -632,7 +644,7 @@
       <c r="E4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="2"/>
+      <c r="F4" s="6"/>
     </row>
     <row r="5" spans="2:6">
       <c r="B5" s="2">
@@ -647,7 +659,7 @@
       <c r="E5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="2"/>
+      <c r="F5" s="6"/>
     </row>
     <row r="6" spans="2:6">
       <c r="B6" s="2">
@@ -662,7 +674,7 @@
       <c r="E6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="2"/>
+      <c r="F6" s="6"/>
     </row>
     <row r="7" spans="2:6">
       <c r="B7" s="2">
@@ -677,7 +689,7 @@
       <c r="E7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="2"/>
+      <c r="F7" s="6"/>
     </row>
     <row r="8" spans="2:6">
       <c r="B8" s="2">
@@ -692,7 +704,7 @@
       <c r="E8" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F8" s="2"/>
+      <c r="F8" s="6"/>
     </row>
     <row r="9" spans="2:6">
       <c r="B9" s="2">
@@ -707,7 +719,7 @@
       <c r="E9" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F9" s="2"/>
+      <c r="F9" s="6"/>
     </row>
     <row r="10" spans="2:6">
       <c r="B10" s="2">
@@ -722,7 +734,7 @@
       <c r="E10" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F10" s="2"/>
+      <c r="F10" s="6"/>
     </row>
     <row r="11" spans="2:6">
       <c r="B11" s="2">
@@ -737,7 +749,7 @@
       <c r="E11" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F11" s="2"/>
+      <c r="F11" s="6"/>
     </row>
     <row r="12" spans="2:6">
       <c r="B12" s="2">
@@ -752,7 +764,7 @@
       <c r="E12" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F12" s="2"/>
+      <c r="F12" s="6"/>
     </row>
     <row r="13" spans="2:6">
       <c r="B13" s="2">
@@ -767,7 +779,7 @@
       <c r="E13" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F13" s="2"/>
+      <c r="F13" s="6"/>
     </row>
     <row r="14" spans="2:6">
       <c r="B14" s="2">
@@ -782,7 +794,7 @@
       <c r="E14" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F14" s="2"/>
+      <c r="F14" s="6"/>
     </row>
     <row r="15" spans="2:6">
       <c r="B15" s="2">
@@ -797,7 +809,7 @@
       <c r="E15" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F15" s="2"/>
+      <c r="F15" s="6"/>
     </row>
     <row r="16" spans="2:6">
       <c r="B16" s="2">
@@ -812,7 +824,7 @@
       <c r="E16" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F16" s="2"/>
+      <c r="F16" s="6"/>
     </row>
     <row r="17" spans="2:6">
       <c r="B17" s="2">
@@ -827,7 +839,7 @@
       <c r="E17" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F17" s="2"/>
+      <c r="F17" s="6"/>
     </row>
     <row r="18" spans="2:6">
       <c r="B18" s="2">
@@ -842,7 +854,7 @@
       <c r="E18" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F18" s="2"/>
+      <c r="F18" s="6"/>
     </row>
     <row r="19" spans="2:6">
       <c r="B19" s="2">
@@ -857,7 +869,7 @@
       <c r="E19" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F19" s="2"/>
+      <c r="F19" s="6"/>
     </row>
     <row r="20" spans="2:6">
       <c r="B20" s="2">
@@ -872,7 +884,7 @@
       <c r="E20" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="F20" s="2"/>
+      <c r="F20" s="6"/>
     </row>
     <row r="21" spans="2:6">
       <c r="B21" s="2">
@@ -887,7 +899,7 @@
       <c r="E21" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F21" s="2"/>
+      <c r="F21" s="6"/>
     </row>
     <row r="22" spans="2:6">
       <c r="B22" s="2">
@@ -902,7 +914,7 @@
       <c r="E22" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F22" s="2"/>
+      <c r="F22" s="6"/>
     </row>
     <row r="23" spans="2:6">
       <c r="B23" s="2">
@@ -917,7 +929,7 @@
       <c r="E23" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F23" s="2"/>
+      <c r="F23" s="6"/>
     </row>
     <row r="24" spans="2:6">
       <c r="B24" s="1"/>
@@ -929,7 +941,7 @@
       <c r="E24" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F24" s="1"/>
+      <c r="F24" s="5"/>
     </row>
     <row r="25" spans="2:6">
       <c r="B25" s="2">
@@ -944,7 +956,7 @@
       <c r="E25" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F25" s="2"/>
+      <c r="F25" s="6"/>
     </row>
     <row r="26" spans="2:6">
       <c r="B26" s="2">
@@ -959,7 +971,7 @@
       <c r="E26" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F26" s="2"/>
+      <c r="F26" s="6"/>
     </row>
     <row r="27" spans="2:6">
       <c r="B27" s="2">
@@ -974,7 +986,7 @@
       <c r="E27" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F27" s="2"/>
+      <c r="F27" s="6"/>
     </row>
     <row r="28" spans="2:6">
       <c r="B28" s="2">
@@ -989,7 +1001,7 @@
       <c r="E28" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F28" s="2"/>
+      <c r="F28" s="6"/>
     </row>
     <row r="29" spans="2:6">
       <c r="B29" s="2">
@@ -1004,7 +1016,7 @@
       <c r="E29" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F29" s="2"/>
+      <c r="F29" s="6"/>
     </row>
     <row r="30" spans="2:6">
       <c r="B30" s="2">
@@ -1019,7 +1031,7 @@
       <c r="E30" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F30" s="2"/>
+      <c r="F30" s="6"/>
     </row>
     <row r="31" spans="2:6">
       <c r="B31" s="2">
@@ -1034,7 +1046,7 @@
       <c r="E31" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F31" s="2"/>
+      <c r="F31" s="6"/>
     </row>
     <row r="32" spans="2:6">
       <c r="B32" s="2">
@@ -1049,7 +1061,7 @@
       <c r="E32" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F32" s="2"/>
+      <c r="F32" s="6"/>
     </row>
     <row r="33" spans="2:6">
       <c r="B33" s="2">
@@ -1064,7 +1076,7 @@
       <c r="E33" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F33" s="2"/>
+      <c r="F33" s="6"/>
     </row>
     <row r="34" spans="2:6">
       <c r="B34" s="2">
@@ -1079,7 +1091,7 @@
       <c r="E34" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F34" s="2" t="s">
+      <c r="F34" s="6" t="s">
         <v>57</v>
       </c>
     </row>
@@ -1096,7 +1108,7 @@
       <c r="E35" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F35" s="2"/>
+      <c r="F35" s="6"/>
     </row>
     <row r="36" spans="2:6">
       <c r="B36" s="2">
@@ -1111,7 +1123,7 @@
       <c r="E36" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F36" s="5" t="s">
+      <c r="F36" s="7" t="s">
         <v>56</v>
       </c>
     </row>
@@ -1128,14 +1140,14 @@
       <c r="E37" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F37" s="5"/>
+      <c r="F37" s="7"/>
     </row>
     <row r="38" spans="2:6">
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
+      <c r="F38" s="6"/>
     </row>
     <row r="39" spans="2:6">
       <c r="B39" s="1"/>
@@ -1147,7 +1159,7 @@
       <c r="E39" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F39" s="1"/>
+      <c r="F39" s="5"/>
     </row>
     <row r="40" spans="2:6">
       <c r="B40" s="2">
@@ -1162,7 +1174,7 @@
       <c r="E40" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F40" s="2"/>
+      <c r="F40" s="6"/>
     </row>
     <row r="41" spans="2:6">
       <c r="B41" s="2">
@@ -1177,7 +1189,7 @@
       <c r="E41" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F41" s="2"/>
+      <c r="F41" s="6"/>
     </row>
     <row r="42" spans="2:6">
       <c r="B42" s="2">
@@ -1192,7 +1204,7 @@
       <c r="E42" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F42" s="2"/>
+      <c r="F42" s="6"/>
     </row>
     <row r="43" spans="2:6">
       <c r="B43" s="2">
@@ -1207,13 +1219,13 @@
       <c r="E43" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F43" s="2"/>
-    </row>
-    <row r="44" spans="2:6">
+      <c r="F43" s="6"/>
+    </row>
+    <row r="44" spans="2:6" ht="45">
       <c r="B44" s="2">
         <v>5</v>
       </c>
-      <c r="C44" s="2" t="s">
+      <c r="C44" s="4" t="s">
         <v>38</v>
       </c>
       <c r="D44" s="2">
@@ -1222,9 +1234,11 @@
       <c r="E44" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F44" s="2"/>
-    </row>
-    <row r="45" spans="2:6">
+      <c r="F44" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" ht="45">
       <c r="B45" s="2">
         <v>6</v>
       </c>
@@ -1237,7 +1251,9 @@
       <c r="E45" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F45" s="2"/>
+      <c r="F45" s="6" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="46" spans="2:6">
       <c r="B46" s="2">
@@ -1252,7 +1268,7 @@
       <c r="E46" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F46" s="2" t="s">
+      <c r="F46" s="6" t="s">
         <v>55</v>
       </c>
     </row>
@@ -1269,14 +1285,14 @@
       <c r="E47" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F47" s="2"/>
+      <c r="F47" s="6"/>
     </row>
     <row r="48" spans="2:6">
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
-      <c r="F48" s="2"/>
+      <c r="F48" s="6"/>
     </row>
     <row r="49" spans="2:6">
       <c r="B49" s="1"/>
@@ -1288,7 +1304,7 @@
       <c r="E49" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F49" s="1"/>
+      <c r="F49" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Wedding Invitation - Andy (NEW 2).xlsx
+++ b/Wedding Invitation - Andy (NEW 2).xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="150" windowWidth="20055" windowHeight="7935"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Arif" sheetId="2" r:id="rId2"/>
+    <sheet name="Papa" sheetId="3" r:id="rId3"/>
+    <sheet name="Mama" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="131">
   <si>
     <t>Name</t>
   </si>
@@ -168,12 +169,6 @@
     <t>Lidya</t>
   </si>
   <si>
-    <t>Mas Onny</t>
-  </si>
-  <si>
-    <t>Networking Crea</t>
-  </si>
-  <si>
     <t>Yennata</t>
   </si>
   <si>
@@ -196,19 +191,250 @@
   </si>
   <si>
     <t>Mulyosari baru no 40 (cari kampung roti, baru masuk gang - deretan mcD) - Sylvi</t>
+  </si>
+  <si>
+    <t>Leonardi Sutikno</t>
+  </si>
+  <si>
+    <t>Hendric Gondokusumo</t>
+  </si>
+  <si>
+    <t>Alexander Mallian</t>
+  </si>
+  <si>
+    <t>Oscar Indra Kusuma</t>
+  </si>
+  <si>
+    <t>Andi Matandi</t>
+  </si>
+  <si>
+    <t>Naldy Tjandra</t>
+  </si>
+  <si>
+    <t>Halim Sigit Legowo</t>
+  </si>
+  <si>
+    <t>Hernanto Poernomo</t>
+  </si>
+  <si>
+    <t>Bambang Handoyo</t>
+  </si>
+  <si>
+    <t>Eddy Hariono</t>
+  </si>
+  <si>
+    <t>Ali Wibisono</t>
+  </si>
+  <si>
+    <t>Eddy Mailoa</t>
+  </si>
+  <si>
+    <t>Sugeng Wijaya</t>
+  </si>
+  <si>
+    <t>Kennarto Tanadi</t>
+  </si>
+  <si>
+    <t>King Sutanto</t>
+  </si>
+  <si>
+    <t>Oentung Widodo</t>
+  </si>
+  <si>
+    <t>Andi Santoso</t>
+  </si>
+  <si>
+    <t>Salim Jamin</t>
+  </si>
+  <si>
+    <t>Tjipto A.H.</t>
+  </si>
+  <si>
+    <t>Tony Hartono</t>
+  </si>
+  <si>
+    <t>Liem Yin Kwang</t>
+  </si>
+  <si>
+    <t>Jusman Pornomo</t>
+  </si>
+  <si>
+    <t>Hok Lai</t>
+  </si>
+  <si>
+    <t>Tjoe Mei Hwa</t>
+  </si>
+  <si>
+    <t>Wee Yek</t>
+  </si>
+  <si>
+    <t>Sebastian Susetio</t>
+  </si>
+  <si>
+    <t>Lie Shien Ming</t>
+  </si>
+  <si>
+    <t>Sia Yau Dang</t>
+  </si>
+  <si>
+    <t>Cahyadi Tanudjaja</t>
+  </si>
+  <si>
+    <t>Mulyanto Adisaputra</t>
+  </si>
+  <si>
+    <t>Kwa Hok Gwan</t>
+  </si>
+  <si>
+    <t>Xue You Xing</t>
+  </si>
+  <si>
+    <t>Tjudy Yauwanto</t>
+  </si>
+  <si>
+    <t>Edy - Ferawati</t>
+  </si>
+  <si>
+    <t>Lien Tjia Ming</t>
+  </si>
+  <si>
+    <t>Tjudy Senatra</t>
+  </si>
+  <si>
+    <t>Yohanes Hadinata</t>
+  </si>
+  <si>
+    <t>Simon Hidayat</t>
+  </si>
+  <si>
+    <t>Verawaty</t>
+  </si>
+  <si>
+    <t>Hendras</t>
+  </si>
+  <si>
+    <t>David</t>
+  </si>
+  <si>
+    <t>Njoo Kiat Cing</t>
+  </si>
+  <si>
+    <t>Njoo Kiat Beng</t>
+  </si>
+  <si>
+    <t>Njoo Kiat Jin</t>
+  </si>
+  <si>
+    <t>Njoo Kiat Lam</t>
+  </si>
+  <si>
+    <t>Njoo Kiat Git</t>
+  </si>
+  <si>
+    <t>NJDJ : Njoo Kiat Lai</t>
+  </si>
+  <si>
+    <t>Njoo Ti Wan</t>
+  </si>
+  <si>
+    <t>Go Hun</t>
+  </si>
+  <si>
+    <t>Lie Soen Eng</t>
+  </si>
+  <si>
+    <t>Lie Soen Hok</t>
+  </si>
+  <si>
+    <t>Wee Ming</t>
+  </si>
+  <si>
+    <t>Tan Kwang Yong</t>
+  </si>
+  <si>
+    <t>Ie Nan</t>
+  </si>
+  <si>
+    <t>Go Dian Tjai</t>
+  </si>
+  <si>
+    <t>Kok An</t>
+  </si>
+  <si>
+    <t>Yang Pin</t>
+  </si>
+  <si>
+    <t>Yang Yung</t>
+  </si>
+  <si>
+    <t>Yang Sung</t>
+  </si>
+  <si>
+    <t>Puguh Sugito</t>
+  </si>
+  <si>
+    <t>Sehadi Poniman</t>
+  </si>
+  <si>
+    <t>Acung Rotinggo</t>
+  </si>
+  <si>
+    <t>Adi Mulyo - Susy</t>
+  </si>
+  <si>
+    <t>Sandjaya Adi Kusuma - Mega</t>
+  </si>
+  <si>
+    <t>Hadi Yusuf &amp; Ellys</t>
+  </si>
+  <si>
+    <t>Gunawan Prayogo - Medy</t>
+  </si>
+  <si>
+    <t>Tikno Sukamto - Lydia</t>
+  </si>
+  <si>
+    <t>Bambang Sutyahyo - Lingky</t>
+  </si>
+  <si>
+    <t>Nanang Tedja - Susana</t>
+  </si>
+  <si>
+    <t>Lie Tek Chie - Me Hwa</t>
+  </si>
+  <si>
+    <t>Huang Cien</t>
+  </si>
+  <si>
+    <t>Honggo Purnomo</t>
+  </si>
+  <si>
+    <t>Eddy Susetyo</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF500050"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -231,7 +457,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -265,11 +491,33 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -281,6 +529,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -373,6 +628,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -407,6 +663,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -582,14 +839,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:F49"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:F48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="I43" sqref="I43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.85546875" customWidth="1"/>
     <col min="2" max="2" width="8" customWidth="1"/>
@@ -599,7 +856,7 @@
     <col min="6" max="6" width="32.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -613,10 +870,10 @@
         <v>2</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="3" spans="2:6">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B3" s="2">
         <v>1</v>
       </c>
@@ -631,7 +888,7 @@
       </c>
       <c r="F3" s="6"/>
     </row>
-    <row r="4" spans="2:6">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B4" s="2">
         <v>2</v>
       </c>
@@ -646,7 +903,7 @@
       </c>
       <c r="F4" s="6"/>
     </row>
-    <row r="5" spans="2:6">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" s="2">
         <v>3</v>
       </c>
@@ -661,7 +918,7 @@
       </c>
       <c r="F5" s="6"/>
     </row>
-    <row r="6" spans="2:6">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" s="2">
         <v>4</v>
       </c>
@@ -676,7 +933,7 @@
       </c>
       <c r="F6" s="6"/>
     </row>
-    <row r="7" spans="2:6">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7" s="2">
         <v>5</v>
       </c>
@@ -691,7 +948,7 @@
       </c>
       <c r="F7" s="6"/>
     </row>
-    <row r="8" spans="2:6">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" s="2">
         <v>6</v>
       </c>
@@ -706,7 +963,7 @@
       </c>
       <c r="F8" s="6"/>
     </row>
-    <row r="9" spans="2:6">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B9" s="2">
         <v>7</v>
       </c>
@@ -721,7 +978,7 @@
       </c>
       <c r="F9" s="6"/>
     </row>
-    <row r="10" spans="2:6">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B10" s="2">
         <v>8</v>
       </c>
@@ -736,7 +993,7 @@
       </c>
       <c r="F10" s="6"/>
     </row>
-    <row r="11" spans="2:6">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B11" s="2">
         <v>9</v>
       </c>
@@ -751,7 +1008,7 @@
       </c>
       <c r="F11" s="6"/>
     </row>
-    <row r="12" spans="2:6">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B12" s="2">
         <v>10</v>
       </c>
@@ -766,7 +1023,7 @@
       </c>
       <c r="F12" s="6"/>
     </row>
-    <row r="13" spans="2:6">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B13" s="2">
         <v>11</v>
       </c>
@@ -781,7 +1038,7 @@
       </c>
       <c r="F13" s="6"/>
     </row>
-    <row r="14" spans="2:6">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B14" s="2">
         <v>12</v>
       </c>
@@ -796,7 +1053,7 @@
       </c>
       <c r="F14" s="6"/>
     </row>
-    <row r="15" spans="2:6">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B15" s="2">
         <v>13</v>
       </c>
@@ -811,7 +1068,7 @@
       </c>
       <c r="F15" s="6"/>
     </row>
-    <row r="16" spans="2:6">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B16" s="2">
         <v>14</v>
       </c>
@@ -826,7 +1083,7 @@
       </c>
       <c r="F16" s="6"/>
     </row>
-    <row r="17" spans="2:6">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="2">
         <v>15</v>
       </c>
@@ -841,7 +1098,7 @@
       </c>
       <c r="F17" s="6"/>
     </row>
-    <row r="18" spans="2:6">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="2">
         <v>16</v>
       </c>
@@ -856,7 +1113,7 @@
       </c>
       <c r="F18" s="6"/>
     </row>
-    <row r="19" spans="2:6">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B19" s="2">
         <v>17</v>
       </c>
@@ -871,42 +1128,42 @@
       </c>
       <c r="F19" s="6"/>
     </row>
-    <row r="20" spans="2:6">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20" s="2">
         <v>18</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>50</v>
+      <c r="C20" s="4" t="s">
+        <v>31</v>
       </c>
       <c r="D20" s="2">
         <v>2</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="F20" s="6"/>
     </row>
-    <row r="21" spans="2:6">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B21" s="2">
         <v>19</v>
       </c>
-      <c r="C21" s="4" t="s">
-        <v>31</v>
+      <c r="C21" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="D21" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="F21" s="6"/>
     </row>
-    <row r="22" spans="2:6">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B22" s="2">
         <v>20</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D22" s="2">
         <v>1</v>
@@ -916,54 +1173,54 @@
       </c>
       <c r="F22" s="6"/>
     </row>
-    <row r="23" spans="2:6">
-      <c r="B23" s="2">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1">
+        <f>SUM(D3:D22)</f>
+        <v>31</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F23" s="5"/>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B24" s="2">
+        <v>1</v>
+      </c>
+      <c r="C24" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D23" s="2">
-        <v>1</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F23" s="6"/>
-    </row>
-    <row r="24" spans="2:6">
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1">
-        <f>SUM(D3:D23)</f>
-        <v>33</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F24" s="5"/>
-    </row>
-    <row r="25" spans="2:6">
+      <c r="D24" s="2">
+        <v>1</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F24" s="6"/>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B25" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D25" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>27</v>
       </c>
       <c r="F25" s="6"/>
     </row>
-    <row r="26" spans="2:6">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B26" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D26" s="2">
         <v>2</v>
@@ -973,12 +1230,12 @@
       </c>
       <c r="F26" s="6"/>
     </row>
-    <row r="27" spans="2:6">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B27" s="2">
-        <v>3</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>23</v>
+        <v>4</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="D27" s="2">
         <v>2</v>
@@ -988,42 +1245,42 @@
       </c>
       <c r="F27" s="6"/>
     </row>
-    <row r="28" spans="2:6">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B28" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D28" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>27</v>
       </c>
       <c r="F28" s="6"/>
     </row>
-    <row r="29" spans="2:6">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B29" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D29" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>27</v>
       </c>
       <c r="F29" s="6"/>
     </row>
-    <row r="30" spans="2:6">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B30" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="D30" s="2">
         <v>2</v>
@@ -1033,74 +1290,74 @@
       </c>
       <c r="F30" s="6"/>
     </row>
-    <row r="31" spans="2:6">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B31" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D31" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>27</v>
       </c>
       <c r="F31" s="6"/>
     </row>
-    <row r="32" spans="2:6">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B32" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="D32" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>27</v>
       </c>
       <c r="F32" s="6"/>
     </row>
-    <row r="33" spans="2:6">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B33" s="2">
-        <v>9</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>41</v>
+        <v>10</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>49</v>
       </c>
       <c r="D33" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F33" s="6"/>
-    </row>
-    <row r="34" spans="2:6">
+      <c r="F33" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B34" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="D34" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F34" s="6" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="35" spans="2:6">
+      <c r="F34" s="6"/>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B35" s="2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="D35" s="2">
         <v>2</v>
@@ -1108,14 +1365,16 @@
       <c r="E35" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F35" s="6"/>
-    </row>
-    <row r="36" spans="2:6">
+      <c r="F35" s="14" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B36" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D36" s="2">
         <v>2</v>
@@ -1123,50 +1382,48 @@
       <c r="E36" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F36" s="7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="37" spans="2:6">
-      <c r="B37" s="2">
-        <v>13</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D37" s="2">
-        <v>2</v>
-      </c>
-      <c r="E37" s="2" t="s">
+      <c r="F36" s="14"/>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="6"/>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1">
+        <f>SUM(D24:D37)</f>
+        <v>22</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F38" s="5"/>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B39" s="2">
+        <v>1</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D39" s="2">
+        <v>1</v>
+      </c>
+      <c r="E39" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F37" s="7"/>
-    </row>
-    <row r="38" spans="2:6">
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="6"/>
-    </row>
-    <row r="39" spans="2:6">
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1">
-        <f>SUM(D25:D38)</f>
-        <v>22</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F39" s="5"/>
-    </row>
-    <row r="40" spans="2:6">
+      <c r="F39" s="6"/>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B40" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D40" s="2">
         <v>1</v>
@@ -1176,139 +1433,124 @@
       </c>
       <c r="F40" s="6"/>
     </row>
-    <row r="41" spans="2:6">
+    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B41" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D41" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>27</v>
       </c>
       <c r="F41" s="6"/>
     </row>
-    <row r="42" spans="2:6">
+    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B42" s="2">
-        <v>3</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>30</v>
+        <v>4</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>36</v>
       </c>
       <c r="D42" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="F42" s="6"/>
     </row>
-    <row r="43" spans="2:6">
+    <row r="43" spans="2:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B43" s="2">
-        <v>4</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>36</v>
+        <v>5</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>38</v>
       </c>
       <c r="D43" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F43" s="6"/>
-    </row>
-    <row r="44" spans="2:6" ht="45">
+      <c r="F43" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B44" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D44" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>37</v>
       </c>
       <c r="F44" s="6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="45" spans="2:6" ht="45">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B45" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D45" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>37</v>
       </c>
       <c r="F45" s="6" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="46" spans="2:6">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B46" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D46" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F46" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="47" spans="2:6">
-      <c r="B47" s="2">
-        <v>8</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D47" s="2">
-        <v>1</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>37</v>
-      </c>
+      <c r="F46" s="6"/>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
       <c r="F47" s="6"/>
     </row>
-    <row r="48" spans="2:6">
-      <c r="B48" s="2"/>
-      <c r="C48" s="2"/>
-      <c r="D48" s="2"/>
-      <c r="E48" s="2"/>
-      <c r="F48" s="6"/>
-    </row>
-    <row r="49" spans="2:6">
-      <c r="B49" s="1"/>
-      <c r="C49" s="1"/>
-      <c r="D49" s="1">
-        <f>SUM(D40:D48)</f>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1">
+        <f>SUM(D39:D47)</f>
         <v>11</v>
       </c>
-      <c r="E49" s="1" t="s">
+      <c r="E48" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F49" s="5"/>
+      <c r="F48" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="F35:F36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="285" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -1316,25 +1558,687 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="6.7109375" customWidth="1"/>
+    <col min="3" max="3" width="28.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B4" s="2">
+        <v>2</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B5" s="2">
+        <v>3</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B6" s="2">
+        <v>4</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B7" s="2">
+        <v>5</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B8" s="7">
+        <v>6</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:C60"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="6.28515625" customWidth="1"/>
+    <col min="3" max="3" width="54.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B4" s="2">
+        <v>2</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B5" s="2">
+        <v>3</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B6" s="2">
+        <v>4</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B7" s="2">
+        <v>5</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B8" s="2">
+        <v>6</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B9" s="2">
+        <v>7</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B10" s="2">
+        <v>8</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B11" s="2">
+        <v>9</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B12" s="2">
+        <v>10</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B13" s="2">
+        <v>11</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B14" s="2">
+        <v>12</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B15" s="4"/>
+      <c r="C15" s="12"/>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B16" s="2">
+        <v>13</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17" s="2">
+        <v>14</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B18" s="2">
+        <v>15</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B19" s="2">
+        <v>16</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B20" s="2">
+        <v>17</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B21" s="2">
+        <v>18</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B22" s="2">
+        <v>19</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B23" s="2">
+        <v>20</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B24" s="2">
+        <v>21</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B26" s="2">
+        <v>22</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B27" s="2">
+        <v>23</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B28" s="2">
+        <v>24</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B29" s="2">
+        <v>25</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B30" s="2">
+        <v>26</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B31" s="2">
+        <v>27</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B32" s="2">
+        <v>28</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B33" s="2">
+        <v>29</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B34" s="2">
+        <v>30</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B35" s="2">
+        <v>31</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B36" s="2">
+        <v>32</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B37" s="2">
+        <v>33</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B38" s="2">
+        <v>34</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B39" s="2">
+        <v>35</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
+    </row>
+    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B41" s="2">
+        <v>36</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B42" s="2">
+        <v>37</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B43" s="2">
+        <v>38</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B44" s="2">
+        <v>39</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B45" s="2">
+        <v>40</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B46" s="2">
+        <v>41</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B47" s="2">
+        <v>42</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B48" s="2">
+        <v>43</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B49" s="2">
+        <v>44</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B50" s="2">
+        <v>45</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B51" s="2">
+        <v>46</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B52" s="2">
+        <v>47</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B53" s="2">
+        <v>48</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B54" s="2">
+        <v>49</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B55" s="2">
+        <v>50</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="56" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B56" s="2">
+        <v>51</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="57" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B57" s="2">
+        <v>52</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="58" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B58" s="2">
+        <v>53</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="59" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B59" s="2">
+        <v>54</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="60" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B60" s="7"/>
+      <c r="C60" s="7"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:C16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="7" customWidth="1"/>
+    <col min="3" max="3" width="47.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B4" s="2">
+        <v>2</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B5" s="2">
+        <v>3</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B6" s="2">
+        <v>4</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B7" s="2">
+        <v>5</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B8" s="2">
+        <v>6</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B9" s="2">
+        <v>7</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B10" s="2">
+        <v>8</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B11" s="2">
+        <v>9</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B12" s="2">
+        <v>10</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B13" s="2">
+        <v>11</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B14" s="2">
+        <v>12</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B15" s="2">
+        <v>13</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Wedding Invitation - Andy (NEW 2).xlsx
+++ b/Wedding Invitation - Andy (NEW 2).xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="150" windowWidth="20055" windowHeight="7935"/>
@@ -12,12 +12,12 @@
     <sheet name="Papa" sheetId="3" r:id="rId3"/>
     <sheet name="Mama" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="133">
   <si>
     <t>Name</t>
   </si>
@@ -208,9 +208,6 @@
     <t>Andi Matandi</t>
   </si>
   <si>
-    <t>Naldy Tjandra</t>
-  </si>
-  <si>
     <t>Halim Sigit Legowo</t>
   </si>
   <si>
@@ -410,13 +407,22 @@
   </si>
   <si>
     <t>Eddy Susetyo</t>
+  </si>
+  <si>
+    <t>Graha Family T-97</t>
+  </si>
+  <si>
+    <t>Gading Pantai IV / 9</t>
+  </si>
+  <si>
+    <t>Naldy Tjandra (family card)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -517,7 +523,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -538,6 +544,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -628,7 +637,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -663,7 +671,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -839,14 +846,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:F48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="6.85546875" customWidth="1"/>
     <col min="2" max="2" width="8" customWidth="1"/>
@@ -856,7 +863,7 @@
     <col min="6" max="6" width="32.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:6">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -873,7 +880,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:6">
       <c r="B3" s="2">
         <v>1</v>
       </c>
@@ -888,7 +895,7 @@
       </c>
       <c r="F3" s="6"/>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:6">
       <c r="B4" s="2">
         <v>2</v>
       </c>
@@ -903,7 +910,7 @@
       </c>
       <c r="F4" s="6"/>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:6">
       <c r="B5" s="2">
         <v>3</v>
       </c>
@@ -918,7 +925,7 @@
       </c>
       <c r="F5" s="6"/>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:6">
       <c r="B6" s="2">
         <v>4</v>
       </c>
@@ -933,7 +940,7 @@
       </c>
       <c r="F6" s="6"/>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:6">
       <c r="B7" s="2">
         <v>5</v>
       </c>
@@ -948,7 +955,7 @@
       </c>
       <c r="F7" s="6"/>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:6">
       <c r="B8" s="2">
         <v>6</v>
       </c>
@@ -963,7 +970,7 @@
       </c>
       <c r="F8" s="6"/>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:6">
       <c r="B9" s="2">
         <v>7</v>
       </c>
@@ -978,7 +985,7 @@
       </c>
       <c r="F9" s="6"/>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:6">
       <c r="B10" s="2">
         <v>8</v>
       </c>
@@ -993,7 +1000,7 @@
       </c>
       <c r="F10" s="6"/>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:6">
       <c r="B11" s="2">
         <v>9</v>
       </c>
@@ -1008,7 +1015,7 @@
       </c>
       <c r="F11" s="6"/>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:6">
       <c r="B12" s="2">
         <v>10</v>
       </c>
@@ -1023,7 +1030,7 @@
       </c>
       <c r="F12" s="6"/>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:6">
       <c r="B13" s="2">
         <v>11</v>
       </c>
@@ -1038,7 +1045,7 @@
       </c>
       <c r="F13" s="6"/>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:6">
       <c r="B14" s="2">
         <v>12</v>
       </c>
@@ -1053,7 +1060,7 @@
       </c>
       <c r="F14" s="6"/>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:6">
       <c r="B15" s="2">
         <v>13</v>
       </c>
@@ -1068,7 +1075,7 @@
       </c>
       <c r="F15" s="6"/>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:6">
       <c r="B16" s="2">
         <v>14</v>
       </c>
@@ -1083,7 +1090,7 @@
       </c>
       <c r="F16" s="6"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:6">
       <c r="B17" s="2">
         <v>15</v>
       </c>
@@ -1098,7 +1105,7 @@
       </c>
       <c r="F17" s="6"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:6">
       <c r="B18" s="2">
         <v>16</v>
       </c>
@@ -1113,7 +1120,7 @@
       </c>
       <c r="F18" s="6"/>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:6">
       <c r="B19" s="2">
         <v>17</v>
       </c>
@@ -1128,7 +1135,7 @@
       </c>
       <c r="F19" s="6"/>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:6">
       <c r="B20" s="2">
         <v>18</v>
       </c>
@@ -1141,9 +1148,9 @@
       <c r="E20" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F20" s="6"/>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F20" s="15"/>
+    </row>
+    <row r="21" spans="2:6">
       <c r="B21" s="2">
         <v>19</v>
       </c>
@@ -1158,7 +1165,7 @@
       </c>
       <c r="F21" s="6"/>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:6">
       <c r="B22" s="2">
         <v>20</v>
       </c>
@@ -1173,7 +1180,7 @@
       </c>
       <c r="F22" s="6"/>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:6">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1">
@@ -1185,7 +1192,7 @@
       </c>
       <c r="F23" s="5"/>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:6">
       <c r="B24" s="2">
         <v>1</v>
       </c>
@@ -1200,7 +1207,7 @@
       </c>
       <c r="F24" s="6"/>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:6">
       <c r="B25" s="2">
         <v>2</v>
       </c>
@@ -1213,9 +1220,9 @@
       <c r="E25" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F25" s="6"/>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F25" s="15"/>
+    </row>
+    <row r="26" spans="2:6">
       <c r="B26" s="2">
         <v>3</v>
       </c>
@@ -1230,7 +1237,7 @@
       </c>
       <c r="F26" s="6"/>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:6">
       <c r="B27" s="2">
         <v>4</v>
       </c>
@@ -1245,11 +1252,11 @@
       </c>
       <c r="F27" s="6"/>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:6">
       <c r="B28" s="2">
         <v>5</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C28" s="4" t="s">
         <v>25</v>
       </c>
       <c r="D28" s="2">
@@ -1258,9 +1265,9 @@
       <c r="E28" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F28" s="6"/>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F28" s="15"/>
+    </row>
+    <row r="29" spans="2:6">
       <c r="B29" s="2">
         <v>6</v>
       </c>
@@ -1275,11 +1282,11 @@
       </c>
       <c r="F29" s="6"/>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:6">
       <c r="B30" s="2">
         <v>7</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C30" s="4" t="s">
         <v>33</v>
       </c>
       <c r="D30" s="2">
@@ -1290,7 +1297,7 @@
       </c>
       <c r="F30" s="6"/>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:6">
       <c r="B31" s="2">
         <v>8</v>
       </c>
@@ -1305,11 +1312,11 @@
       </c>
       <c r="F31" s="6"/>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:6">
       <c r="B32" s="2">
         <v>9</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C32" s="4" t="s">
         <v>41</v>
       </c>
       <c r="D32" s="2">
@@ -1318,9 +1325,11 @@
       <c r="E32" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F32" s="6"/>
-    </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F32" s="6" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6">
       <c r="B33" s="2">
         <v>10</v>
       </c>
@@ -1337,7 +1346,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:6">
       <c r="B34" s="2">
         <v>11</v>
       </c>
@@ -1350,9 +1359,11 @@
       <c r="E34" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F34" s="6"/>
-    </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F34" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6">
       <c r="B35" s="2">
         <v>12</v>
       </c>
@@ -1369,7 +1380,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:6">
       <c r="B36" s="2">
         <v>13</v>
       </c>
@@ -1384,14 +1395,14 @@
       </c>
       <c r="F36" s="14"/>
     </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:6">
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
       <c r="F37" s="6"/>
     </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:6">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1">
@@ -1403,7 +1414,7 @@
       </c>
       <c r="F38" s="5"/>
     </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:6">
       <c r="B39" s="2">
         <v>1</v>
       </c>
@@ -1416,9 +1427,9 @@
       <c r="E39" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F39" s="6"/>
-    </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F39" s="15"/>
+    </row>
+    <row r="40" spans="2:6">
       <c r="B40" s="2">
         <v>2</v>
       </c>
@@ -1431,9 +1442,9 @@
       <c r="E40" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F40" s="6"/>
-    </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F40" s="15"/>
+    </row>
+    <row r="41" spans="2:6">
       <c r="B41" s="2">
         <v>3</v>
       </c>
@@ -1446,9 +1457,9 @@
       <c r="E41" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F41" s="6"/>
-    </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F41" s="15"/>
+    </row>
+    <row r="42" spans="2:6">
       <c r="B42" s="2">
         <v>4</v>
       </c>
@@ -1461,9 +1472,9 @@
       <c r="E42" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F42" s="6"/>
-    </row>
-    <row r="43" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="F42" s="15"/>
+    </row>
+    <row r="43" spans="2:6" ht="45">
       <c r="B43" s="2">
         <v>5</v>
       </c>
@@ -1480,7 +1491,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="44" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:6" ht="45">
       <c r="B44" s="2">
         <v>6</v>
       </c>
@@ -1497,7 +1508,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:6">
       <c r="B45" s="2">
         <v>7</v>
       </c>
@@ -1514,7 +1525,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:6">
       <c r="B46" s="2">
         <v>8</v>
       </c>
@@ -1527,16 +1538,16 @@
       <c r="E46" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F46" s="6"/>
-    </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F46" s="15"/>
+    </row>
+    <row r="47" spans="2:6">
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
       <c r="F47" s="6"/>
     </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:6">
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1">
@@ -1558,20 +1569,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="6.7109375" customWidth="1"/>
     <col min="3" max="3" width="28.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:3">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1579,7 +1590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:3">
       <c r="B3" s="2">
         <v>1</v>
       </c>
@@ -1587,7 +1598,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:3">
       <c r="B4" s="2">
         <v>2</v>
       </c>
@@ -1595,7 +1606,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:3">
       <c r="B5" s="2">
         <v>3</v>
       </c>
@@ -1603,7 +1614,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:3">
       <c r="B6" s="2">
         <v>4</v>
       </c>
@@ -1611,7 +1622,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:3">
       <c r="B7" s="2">
         <v>5</v>
       </c>
@@ -1619,12 +1630,12 @@
         <v>62</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:3">
       <c r="B8" s="7">
         <v>6</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>63</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -1634,20 +1645,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:C60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="6.28515625" customWidth="1"/>
     <col min="3" max="3" width="54.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:3">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1655,451 +1666,451 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:3">
       <c r="B3" s="2">
         <v>1</v>
       </c>
       <c r="C3" s="8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3">
+      <c r="B4" s="2">
+        <v>2</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B4" s="2">
-        <v>2</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:3">
       <c r="B5" s="2">
         <v>3</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3">
       <c r="B6" s="2">
         <v>4</v>
       </c>
       <c r="C6" s="8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3">
+      <c r="B7" s="2">
+        <v>5</v>
+      </c>
+      <c r="C7" s="8" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B7" s="2">
-        <v>5</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:3">
       <c r="B8" s="2">
         <v>6</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3">
       <c r="B9" s="2">
         <v>7</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3">
       <c r="B10" s="2">
         <v>8</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3">
       <c r="B11" s="2">
         <v>9</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3">
       <c r="B12" s="2">
         <v>10</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3">
       <c r="B13" s="2">
         <v>11</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3">
       <c r="B14" s="2">
         <v>12</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3">
       <c r="B15" s="4"/>
       <c r="C15" s="12"/>
     </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:3">
       <c r="B16" s="2">
         <v>13</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3">
       <c r="B17" s="2">
         <v>14</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3">
       <c r="B18" s="2">
         <v>15</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3">
       <c r="B19" s="2">
         <v>16</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3">
       <c r="B20" s="2">
         <v>17</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3">
       <c r="B21" s="2">
         <v>18</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3">
       <c r="B22" s="2">
         <v>19</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3">
       <c r="B23" s="2">
         <v>20</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3">
       <c r="B24" s="2">
         <v>21</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3">
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:3">
       <c r="B26" s="2">
         <v>22</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3">
       <c r="B27" s="2">
         <v>23</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3">
       <c r="B28" s="2">
         <v>24</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3">
       <c r="B29" s="2">
         <v>25</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3">
       <c r="B30" s="2">
         <v>26</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3">
       <c r="B31" s="2">
         <v>27</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3">
       <c r="B32" s="2">
         <v>28</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3">
       <c r="B33" s="2">
         <v>29</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3">
       <c r="B34" s="2">
         <v>30</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3">
       <c r="B35" s="2">
         <v>31</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3">
       <c r="B36" s="2">
         <v>32</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3">
       <c r="B37" s="2">
         <v>33</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3">
       <c r="B38" s="2">
         <v>34</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3">
       <c r="B39" s="2">
         <v>35</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3">
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
     </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:3">
       <c r="B41" s="2">
         <v>36</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3">
       <c r="B42" s="2">
         <v>37</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3">
       <c r="B43" s="2">
         <v>38</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3">
       <c r="B44" s="2">
         <v>39</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3">
       <c r="B45" s="2">
         <v>40</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3">
       <c r="B46" s="2">
         <v>41</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3">
       <c r="B47" s="2">
         <v>42</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3">
       <c r="B48" s="2">
         <v>43</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3">
       <c r="B49" s="2">
         <v>44</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3">
       <c r="B50" s="2">
         <v>45</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3">
       <c r="B51" s="2">
         <v>46</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3">
       <c r="B52" s="2">
         <v>47</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3">
       <c r="B53" s="2">
         <v>48</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3">
       <c r="B54" s="2">
         <v>49</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="55" spans="2:3">
       <c r="B55" s="2">
         <v>50</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="56" spans="2:3">
       <c r="B56" s="2">
         <v>51</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="57" spans="2:3">
       <c r="B57" s="2">
         <v>52</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="58" spans="2:3" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="58" spans="2:3">
       <c r="B58" s="2">
         <v>53</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="59" spans="2:3" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="59" spans="2:3">
       <c r="B59" s="2">
         <v>54</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="60" spans="2:3">
       <c r="B60" s="7"/>
       <c r="C60" s="7"/>
     </row>
@@ -2109,20 +2120,20 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="7" customWidth="1"/>
     <col min="3" max="3" width="47.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:3">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -2130,111 +2141,111 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:3">
       <c r="B3" s="2">
         <v>1</v>
       </c>
       <c r="C3" s="8" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3">
+      <c r="B4" s="2">
+        <v>2</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B4" s="2">
-        <v>2</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:3">
       <c r="B5" s="2">
         <v>3</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3">
       <c r="B6" s="2">
         <v>4</v>
       </c>
       <c r="C6" s="8" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3">
+      <c r="B7" s="2">
+        <v>5</v>
+      </c>
+      <c r="C7" s="8" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B7" s="2">
-        <v>5</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:3">
       <c r="B8" s="2">
         <v>6</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3">
       <c r="B9" s="2">
         <v>7</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3">
       <c r="B10" s="2">
         <v>8</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3">
       <c r="B11" s="2">
         <v>9</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3">
       <c r="B12" s="2">
         <v>10</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3">
       <c r="B13" s="2">
         <v>11</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3">
       <c r="B14" s="2">
         <v>12</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3">
       <c r="B15" s="2">
         <v>13</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3">
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
     </row>

--- a/Wedding Invitation - Andy (NEW 2).xlsx
+++ b/Wedding Invitation - Andy (NEW 2).xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="134">
   <si>
     <t>Name</t>
   </si>
@@ -416,6 +416,9 @@
   </si>
   <si>
     <t>Naldy Tjandra (family card)</t>
+  </si>
+  <si>
+    <t>Kutisari Indah Utara X / 21 (setelah indomaret ada gang di sisi kanan, masuk dan lurus sampe mentok, trs belok kiri, pagar ijo tabung)</t>
   </si>
 </sst>
 </file>
@@ -542,11 +545,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -849,8 +852,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:F48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1148,7 +1151,7 @@
       <c r="E20" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F20" s="15"/>
+      <c r="F20" s="14"/>
     </row>
     <row r="21" spans="2:6">
       <c r="B21" s="2">
@@ -1192,7 +1195,7 @@
       </c>
       <c r="F23" s="5"/>
     </row>
-    <row r="24" spans="2:6">
+    <row r="24" spans="2:6" ht="60">
       <c r="B24" s="2">
         <v>1</v>
       </c>
@@ -1205,7 +1208,9 @@
       <c r="E24" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F24" s="6"/>
+      <c r="F24" s="6" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="25" spans="2:6">
       <c r="B25" s="2">
@@ -1220,7 +1225,7 @@
       <c r="E25" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F25" s="15"/>
+      <c r="F25" s="14"/>
     </row>
     <row r="26" spans="2:6">
       <c r="B26" s="2">
@@ -1265,7 +1270,7 @@
       <c r="E28" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F28" s="15"/>
+      <c r="F28" s="14"/>
     </row>
     <row r="29" spans="2:6">
       <c r="B29" s="2">
@@ -1376,7 +1381,7 @@
       <c r="E35" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F35" s="14" t="s">
+      <c r="F35" s="15" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1393,7 +1398,7 @@
       <c r="E36" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F36" s="14"/>
+      <c r="F36" s="15"/>
     </row>
     <row r="37" spans="2:6">
       <c r="B37" s="2"/>
@@ -1427,7 +1432,7 @@
       <c r="E39" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F39" s="15"/>
+      <c r="F39" s="14"/>
     </row>
     <row r="40" spans="2:6">
       <c r="B40" s="2">
@@ -1442,7 +1447,7 @@
       <c r="E40" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F40" s="15"/>
+      <c r="F40" s="14"/>
     </row>
     <row r="41" spans="2:6">
       <c r="B41" s="2">
@@ -1457,7 +1462,7 @@
       <c r="E41" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F41" s="15"/>
+      <c r="F41" s="14"/>
     </row>
     <row r="42" spans="2:6">
       <c r="B42" s="2">
@@ -1472,7 +1477,7 @@
       <c r="E42" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F42" s="15"/>
+      <c r="F42" s="14"/>
     </row>
     <row r="43" spans="2:6" ht="45">
       <c r="B43" s="2">
@@ -1538,7 +1543,7 @@
       <c r="E46" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F46" s="15"/>
+      <c r="F46" s="14"/>
     </row>
     <row r="47" spans="2:6">
       <c r="B47" s="2"/>

--- a/Wedding Invitation - Andy (NEW 2).xlsx
+++ b/Wedding Invitation - Andy (NEW 2).xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="150" windowWidth="20055" windowHeight="7935"/>
@@ -12,12 +12,12 @@
     <sheet name="Papa" sheetId="3" r:id="rId3"/>
     <sheet name="Mama" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="135">
   <si>
     <t>Name</t>
   </si>
@@ -419,13 +419,16 @@
   </si>
   <si>
     <t>Kutisari Indah Utara X / 21 (setelah indomaret ada gang di sisi kanan, masuk dan lurus sampe mentok, trs belok kiri, pagar ijo tabung)</t>
+  </si>
+  <si>
+    <t>(di line chat)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -640,6 +643,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -674,6 +678,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -849,14 +854,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.85546875" customWidth="1"/>
     <col min="2" max="2" width="8" customWidth="1"/>
@@ -866,7 +871,7 @@
     <col min="6" max="6" width="32.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -883,7 +888,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="2:6">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B3" s="2">
         <v>1</v>
       </c>
@@ -898,7 +903,7 @@
       </c>
       <c r="F3" s="6"/>
     </row>
-    <row r="4" spans="2:6">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B4" s="2">
         <v>2</v>
       </c>
@@ -913,7 +918,7 @@
       </c>
       <c r="F4" s="6"/>
     </row>
-    <row r="5" spans="2:6">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" s="2">
         <v>3</v>
       </c>
@@ -928,7 +933,7 @@
       </c>
       <c r="F5" s="6"/>
     </row>
-    <row r="6" spans="2:6">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" s="2">
         <v>4</v>
       </c>
@@ -943,7 +948,7 @@
       </c>
       <c r="F6" s="6"/>
     </row>
-    <row r="7" spans="2:6">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7" s="2">
         <v>5</v>
       </c>
@@ -958,7 +963,7 @@
       </c>
       <c r="F7" s="6"/>
     </row>
-    <row r="8" spans="2:6">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" s="2">
         <v>6</v>
       </c>
@@ -973,7 +978,7 @@
       </c>
       <c r="F8" s="6"/>
     </row>
-    <row r="9" spans="2:6">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B9" s="2">
         <v>7</v>
       </c>
@@ -988,7 +993,7 @@
       </c>
       <c r="F9" s="6"/>
     </row>
-    <row r="10" spans="2:6">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B10" s="2">
         <v>8</v>
       </c>
@@ -1003,7 +1008,7 @@
       </c>
       <c r="F10" s="6"/>
     </row>
-    <row r="11" spans="2:6">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B11" s="2">
         <v>9</v>
       </c>
@@ -1018,7 +1023,7 @@
       </c>
       <c r="F11" s="6"/>
     </row>
-    <row r="12" spans="2:6">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B12" s="2">
         <v>10</v>
       </c>
@@ -1033,7 +1038,7 @@
       </c>
       <c r="F12" s="6"/>
     </row>
-    <row r="13" spans="2:6">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B13" s="2">
         <v>11</v>
       </c>
@@ -1048,7 +1053,7 @@
       </c>
       <c r="F13" s="6"/>
     </row>
-    <row r="14" spans="2:6">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B14" s="2">
         <v>12</v>
       </c>
@@ -1063,7 +1068,7 @@
       </c>
       <c r="F14" s="6"/>
     </row>
-    <row r="15" spans="2:6">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B15" s="2">
         <v>13</v>
       </c>
@@ -1078,7 +1083,7 @@
       </c>
       <c r="F15" s="6"/>
     </row>
-    <row r="16" spans="2:6">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B16" s="2">
         <v>14</v>
       </c>
@@ -1093,7 +1098,7 @@
       </c>
       <c r="F16" s="6"/>
     </row>
-    <row r="17" spans="2:6">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="2">
         <v>15</v>
       </c>
@@ -1108,7 +1113,7 @@
       </c>
       <c r="F17" s="6"/>
     </row>
-    <row r="18" spans="2:6">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="2">
         <v>16</v>
       </c>
@@ -1123,7 +1128,7 @@
       </c>
       <c r="F18" s="6"/>
     </row>
-    <row r="19" spans="2:6">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B19" s="2">
         <v>17</v>
       </c>
@@ -1138,7 +1143,7 @@
       </c>
       <c r="F19" s="6"/>
     </row>
-    <row r="20" spans="2:6">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20" s="2">
         <v>18</v>
       </c>
@@ -1153,7 +1158,7 @@
       </c>
       <c r="F20" s="14"/>
     </row>
-    <row r="21" spans="2:6">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B21" s="2">
         <v>19</v>
       </c>
@@ -1168,11 +1173,11 @@
       </c>
       <c r="F21" s="6"/>
     </row>
-    <row r="22" spans="2:6">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B22" s="2">
         <v>20</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="3" t="s">
         <v>48</v>
       </c>
       <c r="D22" s="2">
@@ -1183,7 +1188,7 @@
       </c>
       <c r="F22" s="6"/>
     </row>
-    <row r="23" spans="2:6">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1">
@@ -1195,7 +1200,7 @@
       </c>
       <c r="F23" s="5"/>
     </row>
-    <row r="24" spans="2:6" ht="60">
+    <row r="24" spans="2:6" ht="60" x14ac:dyDescent="0.25">
       <c r="B24" s="2">
         <v>1</v>
       </c>
@@ -1212,7 +1217,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="25" spans="2:6">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B25" s="2">
         <v>2</v>
       </c>
@@ -1227,7 +1232,7 @@
       </c>
       <c r="F25" s="14"/>
     </row>
-    <row r="26" spans="2:6">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B26" s="2">
         <v>3</v>
       </c>
@@ -1242,11 +1247,11 @@
       </c>
       <c r="F26" s="6"/>
     </row>
-    <row r="27" spans="2:6">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B27" s="2">
         <v>4</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C27" s="4" t="s">
         <v>24</v>
       </c>
       <c r="D27" s="2">
@@ -1257,7 +1262,7 @@
       </c>
       <c r="F27" s="6"/>
     </row>
-    <row r="28" spans="2:6">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B28" s="2">
         <v>5</v>
       </c>
@@ -1272,11 +1277,11 @@
       </c>
       <c r="F28" s="14"/>
     </row>
-    <row r="29" spans="2:6">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B29" s="2">
         <v>6</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C29" s="4" t="s">
         <v>26</v>
       </c>
       <c r="D29" s="2">
@@ -1287,7 +1292,7 @@
       </c>
       <c r="F29" s="6"/>
     </row>
-    <row r="30" spans="2:6">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B30" s="2">
         <v>7</v>
       </c>
@@ -1302,11 +1307,11 @@
       </c>
       <c r="F30" s="6"/>
     </row>
-    <row r="31" spans="2:6">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B31" s="2">
         <v>8</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C31" s="4" t="s">
         <v>34</v>
       </c>
       <c r="D31" s="2">
@@ -1315,9 +1320,11 @@
       <c r="E31" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F31" s="6"/>
-    </row>
-    <row r="32" spans="2:6">
+      <c r="F31" s="6" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B32" s="2">
         <v>9</v>
       </c>
@@ -1334,7 +1341,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="33" spans="2:6">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B33" s="2">
         <v>10</v>
       </c>
@@ -1351,7 +1358,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="34" spans="2:6">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B34" s="2">
         <v>11</v>
       </c>
@@ -1368,7 +1375,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="35" spans="2:6">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B35" s="2">
         <v>12</v>
       </c>
@@ -1385,7 +1392,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="36" spans="2:6">
+    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B36" s="2">
         <v>13</v>
       </c>
@@ -1400,14 +1407,14 @@
       </c>
       <c r="F36" s="15"/>
     </row>
-    <row r="37" spans="2:6">
+    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
       <c r="F37" s="6"/>
     </row>
-    <row r="38" spans="2:6">
+    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1">
@@ -1419,7 +1426,7 @@
       </c>
       <c r="F38" s="5"/>
     </row>
-    <row r="39" spans="2:6">
+    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B39" s="2">
         <v>1</v>
       </c>
@@ -1434,7 +1441,7 @@
       </c>
       <c r="F39" s="14"/>
     </row>
-    <row r="40" spans="2:6">
+    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B40" s="2">
         <v>2</v>
       </c>
@@ -1449,7 +1456,7 @@
       </c>
       <c r="F40" s="14"/>
     </row>
-    <row r="41" spans="2:6">
+    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B41" s="2">
         <v>3</v>
       </c>
@@ -1464,7 +1471,7 @@
       </c>
       <c r="F41" s="14"/>
     </row>
-    <row r="42" spans="2:6">
+    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B42" s="2">
         <v>4</v>
       </c>
@@ -1479,7 +1486,7 @@
       </c>
       <c r="F42" s="14"/>
     </row>
-    <row r="43" spans="2:6" ht="45">
+    <row r="43" spans="2:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B43" s="2">
         <v>5</v>
       </c>
@@ -1496,7 +1503,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="44" spans="2:6" ht="45">
+    <row r="44" spans="2:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B44" s="2">
         <v>6</v>
       </c>
@@ -1513,7 +1520,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="45" spans="2:6">
+    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B45" s="2">
         <v>7</v>
       </c>
@@ -1530,7 +1537,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="46" spans="2:6">
+    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B46" s="2">
         <v>8</v>
       </c>
@@ -1545,14 +1552,14 @@
       </c>
       <c r="F46" s="14"/>
     </row>
-    <row r="47" spans="2:6">
+    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
       <c r="F47" s="6"/>
     </row>
-    <row r="48" spans="2:6">
+    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1">
@@ -1574,20 +1581,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="6.7109375" customWidth="1"/>
     <col min="3" max="3" width="28.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1595,7 +1602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:3">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" s="2">
         <v>1</v>
       </c>
@@ -1603,7 +1610,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="2:3">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" s="2">
         <v>2</v>
       </c>
@@ -1611,7 +1618,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="2:3">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B5" s="2">
         <v>3</v>
       </c>
@@ -1619,7 +1626,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="2:3">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B6" s="2">
         <v>4</v>
       </c>
@@ -1627,7 +1634,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="7" spans="2:3">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B7" s="2">
         <v>5</v>
       </c>
@@ -1635,7 +1642,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="8" spans="2:3">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B8" s="7">
         <v>6</v>
       </c>
@@ -1650,20 +1657,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:C60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="6.28515625" customWidth="1"/>
     <col min="3" max="3" width="54.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1671,7 +1678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:3">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" s="2">
         <v>1</v>
       </c>
@@ -1679,7 +1686,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="2:3">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" s="2">
         <v>2</v>
       </c>
@@ -1687,7 +1694,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="5" spans="2:3">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B5" s="2">
         <v>3</v>
       </c>
@@ -1695,7 +1702,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="6" spans="2:3">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B6" s="2">
         <v>4</v>
       </c>
@@ -1703,7 +1710,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="7" spans="2:3">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B7" s="2">
         <v>5</v>
       </c>
@@ -1711,7 +1718,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="8" spans="2:3">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B8" s="2">
         <v>6</v>
       </c>
@@ -1719,7 +1726,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="9" spans="2:3">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B9" s="2">
         <v>7</v>
       </c>
@@ -1727,7 +1734,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="10" spans="2:3">
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B10" s="2">
         <v>8</v>
       </c>
@@ -1735,7 +1742,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="11" spans="2:3">
+    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B11" s="2">
         <v>9</v>
       </c>
@@ -1743,7 +1750,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="12" spans="2:3">
+    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B12" s="2">
         <v>10</v>
       </c>
@@ -1751,7 +1758,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="13" spans="2:3">
+    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B13" s="2">
         <v>11</v>
       </c>
@@ -1759,7 +1766,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="14" spans="2:3">
+    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B14" s="2">
         <v>12</v>
       </c>
@@ -1767,11 +1774,11 @@
         <v>74</v>
       </c>
     </row>
-    <row r="15" spans="2:3">
+    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B15" s="4"/>
       <c r="C15" s="12"/>
     </row>
-    <row r="16" spans="2:3">
+    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B16" s="2">
         <v>13</v>
       </c>
@@ -1779,7 +1786,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="17" spans="2:3">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17" s="2">
         <v>14</v>
       </c>
@@ -1787,7 +1794,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="18" spans="2:3">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B18" s="2">
         <v>15</v>
       </c>
@@ -1795,7 +1802,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="19" spans="2:3">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B19" s="2">
         <v>16</v>
       </c>
@@ -1803,7 +1810,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="20" spans="2:3">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B20" s="2">
         <v>17</v>
       </c>
@@ -1811,7 +1818,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="21" spans="2:3">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B21" s="2">
         <v>18</v>
       </c>
@@ -1819,7 +1826,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="22" spans="2:3">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B22" s="2">
         <v>19</v>
       </c>
@@ -1827,7 +1834,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="23" spans="2:3">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B23" s="2">
         <v>20</v>
       </c>
@@ -1835,7 +1842,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="24" spans="2:3">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B24" s="2">
         <v>21</v>
       </c>
@@ -1843,11 +1850,11 @@
         <v>83</v>
       </c>
     </row>
-    <row r="25" spans="2:3">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
     </row>
-    <row r="26" spans="2:3">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B26" s="2">
         <v>22</v>
       </c>
@@ -1855,7 +1862,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="27" spans="2:3">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B27" s="2">
         <v>23</v>
       </c>
@@ -1863,7 +1870,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="28" spans="2:3">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B28" s="2">
         <v>24</v>
       </c>
@@ -1871,7 +1878,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="29" spans="2:3">
+    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B29" s="2">
         <v>25</v>
       </c>
@@ -1879,7 +1886,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="30" spans="2:3">
+    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B30" s="2">
         <v>26</v>
       </c>
@@ -1887,7 +1894,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="31" spans="2:3">
+    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B31" s="2">
         <v>27</v>
       </c>
@@ -1895,7 +1902,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="32" spans="2:3">
+    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B32" s="2">
         <v>28</v>
       </c>
@@ -1903,7 +1910,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="33" spans="2:3">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B33" s="2">
         <v>29</v>
       </c>
@@ -1911,7 +1918,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="34" spans="2:3">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B34" s="2">
         <v>30</v>
       </c>
@@ -1919,7 +1926,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="35" spans="2:3">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B35" s="2">
         <v>31</v>
       </c>
@@ -1927,7 +1934,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="36" spans="2:3">
+    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B36" s="2">
         <v>32</v>
       </c>
@@ -1935,7 +1942,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="37" spans="2:3">
+    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B37" s="2">
         <v>33</v>
       </c>
@@ -1943,7 +1950,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="38" spans="2:3">
+    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B38" s="2">
         <v>34</v>
       </c>
@@ -1951,7 +1958,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="39" spans="2:3">
+    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B39" s="2">
         <v>35</v>
       </c>
@@ -1959,11 +1966,11 @@
         <v>97</v>
       </c>
     </row>
-    <row r="40" spans="2:3">
+    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
     </row>
-    <row r="41" spans="2:3">
+    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B41" s="2">
         <v>36</v>
       </c>
@@ -1971,7 +1978,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="42" spans="2:3">
+    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B42" s="2">
         <v>37</v>
       </c>
@@ -1979,7 +1986,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="43" spans="2:3">
+    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B43" s="2">
         <v>38</v>
       </c>
@@ -1987,7 +1994,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="44" spans="2:3">
+    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B44" s="2">
         <v>39</v>
       </c>
@@ -1995,7 +2002,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="45" spans="2:3">
+    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B45" s="2">
         <v>40</v>
       </c>
@@ -2003,7 +2010,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="46" spans="2:3">
+    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B46" s="2">
         <v>41</v>
       </c>
@@ -2011,7 +2018,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="47" spans="2:3">
+    <row r="47" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B47" s="2">
         <v>42</v>
       </c>
@@ -2019,7 +2026,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="48" spans="2:3">
+    <row r="48" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B48" s="2">
         <v>43</v>
       </c>
@@ -2027,7 +2034,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="49" spans="2:3">
+    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B49" s="2">
         <v>44</v>
       </c>
@@ -2035,7 +2042,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="50" spans="2:3">
+    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B50" s="2">
         <v>45</v>
       </c>
@@ -2043,7 +2050,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="51" spans="2:3">
+    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B51" s="2">
         <v>46</v>
       </c>
@@ -2051,7 +2058,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="52" spans="2:3">
+    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B52" s="2">
         <v>47</v>
       </c>
@@ -2059,7 +2066,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="53" spans="2:3">
+    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B53" s="2">
         <v>48</v>
       </c>
@@ -2067,7 +2074,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="54" spans="2:3">
+    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B54" s="2">
         <v>49</v>
       </c>
@@ -2075,7 +2082,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="55" spans="2:3">
+    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B55" s="2">
         <v>50</v>
       </c>
@@ -2083,7 +2090,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="56" spans="2:3">
+    <row r="56" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B56" s="2">
         <v>51</v>
       </c>
@@ -2091,7 +2098,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="57" spans="2:3">
+    <row r="57" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B57" s="2">
         <v>52</v>
       </c>
@@ -2099,7 +2106,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="58" spans="2:3">
+    <row r="58" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B58" s="2">
         <v>53</v>
       </c>
@@ -2107,7 +2114,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="59" spans="2:3">
+    <row r="59" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B59" s="2">
         <v>54</v>
       </c>
@@ -2115,7 +2122,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="60" spans="2:3">
+    <row r="60" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B60" s="7"/>
       <c r="C60" s="7"/>
     </row>
@@ -2125,20 +2132,20 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="7" customWidth="1"/>
     <col min="3" max="3" width="47.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -2146,7 +2153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:3">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" s="2">
         <v>1</v>
       </c>
@@ -2154,7 +2161,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="4" spans="2:3">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" s="2">
         <v>2</v>
       </c>
@@ -2162,7 +2169,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="5" spans="2:3">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B5" s="2">
         <v>3</v>
       </c>
@@ -2170,7 +2177,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="6" spans="2:3">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B6" s="2">
         <v>4</v>
       </c>
@@ -2178,7 +2185,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="7" spans="2:3">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B7" s="2">
         <v>5</v>
       </c>
@@ -2186,7 +2193,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="8" spans="2:3">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B8" s="2">
         <v>6</v>
       </c>
@@ -2194,7 +2201,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="9" spans="2:3">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B9" s="2">
         <v>7</v>
       </c>
@@ -2202,7 +2209,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="10" spans="2:3">
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B10" s="2">
         <v>8</v>
       </c>
@@ -2210,7 +2217,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="11" spans="2:3">
+    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B11" s="2">
         <v>9</v>
       </c>
@@ -2218,7 +2225,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="12" spans="2:3">
+    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B12" s="2">
         <v>10</v>
       </c>
@@ -2226,7 +2233,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="13" spans="2:3">
+    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B13" s="2">
         <v>11</v>
       </c>
@@ -2234,7 +2241,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="14" spans="2:3">
+    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B14" s="2">
         <v>12</v>
       </c>
@@ -2242,7 +2249,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="15" spans="2:3">
+    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B15" s="2">
         <v>13</v>
       </c>
@@ -2250,7 +2257,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="16" spans="2:3">
+    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
     </row>

--- a/Wedding Invitation - Andy (NEW 2).xlsx
+++ b/Wedding Invitation - Andy (NEW 2).xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="138">
   <si>
     <t>Name</t>
   </si>
@@ -422,6 +422,15 @@
   </si>
   <si>
     <t>(di line chat)</t>
+  </si>
+  <si>
+    <t>Ngagel Jaya Tengah gang 8 no 12 (pagar hijau) - (liat BBM for detail)</t>
+  </si>
+  <si>
+    <t>Johan 2007</t>
+  </si>
+  <si>
+    <t>Undangan dikasihkan di GM</t>
   </si>
 </sst>
 </file>
@@ -529,7 +538,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -550,6 +559,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -855,7 +867,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F48"/>
+  <dimension ref="B2:F49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
@@ -1292,7 +1304,7 @@
       </c>
       <c r="F29" s="6"/>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B30" s="2">
         <v>7</v>
       </c>
@@ -1305,7 +1317,9 @@
       <c r="E30" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F30" s="6"/>
+      <c r="F30" s="6" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B31" s="2">
@@ -1388,7 +1402,7 @@
       <c r="E35" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F35" s="15" t="s">
+      <c r="F35" s="16" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1405,48 +1419,50 @@
       <c r="E36" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F36" s="15"/>
+      <c r="F36" s="16"/>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="6"/>
+      <c r="B37" s="2">
+        <v>14</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="D37" s="2">
+        <v>2</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F37" s="15" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1">
-        <f>SUM(D24:D37)</f>
-        <v>22</v>
-      </c>
-      <c r="E38" s="1" t="s">
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="6"/>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1">
+        <f>SUM(D24:D38)</f>
+        <v>24</v>
+      </c>
+      <c r="E39" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F38" s="5"/>
-    </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B39" s="2">
-        <v>1</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D39" s="2">
-        <v>1</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F39" s="14"/>
+      <c r="F39" s="5"/>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B40" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D40" s="2">
         <v>1</v>
@@ -1458,13 +1474,13 @@
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B41" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D41" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>27</v>
@@ -1473,103 +1489,118 @@
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B42" s="2">
+        <v>3</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D42" s="2">
+        <v>2</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F42" s="14"/>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B43" s="2">
         <v>4</v>
       </c>
-      <c r="C42" s="3" t="s">
+      <c r="C43" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D42" s="2">
-        <v>1</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F42" s="14"/>
-    </row>
-    <row r="43" spans="2:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="B43" s="2">
-        <v>5</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>38</v>
-      </c>
       <c r="D43" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F43" s="6" t="s">
-        <v>57</v>
-      </c>
+      <c r="F43" s="14"/>
     </row>
     <row r="44" spans="2:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B44" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D44" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>37</v>
       </c>
       <c r="F44" s="6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B45" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D45" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>37</v>
       </c>
       <c r="F45" s="6" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="46" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B46" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D46" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F46" s="14"/>
+      <c r="F46" s="6" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="47" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B47" s="2"/>
-      <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
-      <c r="E47" s="2"/>
-      <c r="F47" s="6"/>
+      <c r="B47" s="2">
+        <v>8</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D47" s="2">
+        <v>1</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F47" s="14"/>
     </row>
     <row r="48" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1">
-        <f>SUM(D39:D47)</f>
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="6"/>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1">
+        <f>SUM(D40:D48)</f>
         <v>11</v>
       </c>
-      <c r="E48" s="1" t="s">
+      <c r="E49" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F48" s="5"/>
+      <c r="F49" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
